--- a/service/TestService/config/xlsx/example.xlsx
+++ b/service/TestService/config/xlsx/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B128189-6BF4-4714-9831-BB61B242D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223BA21-ADC0-415F-83BE-5BA820C0B887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="6252" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array[int]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_index(Goal.Id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict&lt;int, int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_key(Role.Id)|check_index(Buff.Id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,46 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHU_JI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZHONG_JI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAO_JI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DA_WANG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QIAN_NIAN_LAO_LIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEI_SUO_XIAN_SHENG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAI_SE_QING_DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LA_PI_TIAO_DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAO_AN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUO_JIA_LING_XIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1, 2, 3, 4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,15 +220,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>da</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dafa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{155:155, }</t>
+    <t>array[int32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int32, int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CHU_JI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ZHONG_JI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GAO_JI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DA_WANG"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"QIAN_NIAN_LAO_LIU"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"WEI_SUO_XIAN_SHENG"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MAI_SE_QING_DE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LA_PI_TIAO_DE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BAO_AN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GUO_JIA_LING_XIU"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int32, string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:1000, 2:125}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 5, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":"NI_HAO", "2":"GAN"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"100":[1, 5, 6], "200":[9,10]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"100":{5:[1, 5], "2":[55, 69]}, "200":{6:[9,10], "8":[1,2]} }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":1000, "2":125}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"100":{"5":[1, 5], "2":[55, 69]}, "200":{"6":[9,10], "8":[1,2]} }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"155":155, }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,9 +362,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -609,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,14 +661,15 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -655,8 +695,11 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -673,22 +716,25 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -702,61 +748,64 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -764,25 +813,28 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -793,10 +845,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -804,11 +868,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -816,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -844,16 +922,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -861,10 +933,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -872,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -886,10 +958,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>9</v>
       </c>
@@ -897,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -908,21 +980,22 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5941D-3FB6-445E-BA52-3EB973D766E4}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -932,14 +1005,15 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,8 +1041,11 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -985,22 +1062,25 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1014,64 +1094,67 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1079,25 +1162,28 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,16 +1194,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>12</v>
       </c>
@@ -1125,13 +1214,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>13</v>
       </c>
@@ -1139,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1156,13 +1248,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>15</v>
       </c>
@@ -1170,13 +1262,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>16</v>
       </c>
@@ -1184,13 +1276,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>17</v>
       </c>
@@ -1198,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,13 +1307,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>19</v>
       </c>
@@ -1229,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1251,18 +1343,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB3BE2-8EAB-4BFA-B4A2-DE34CC10B52E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1311,19 +1407,19 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1340,19 +1436,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -1360,114 +1456,131 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>10</v>
       </c>
     </row>
@@ -1508,7 +1621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DA1D9-DFB7-429C-A7FD-58E60AF9E570}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/service/TestService/config/xlsx/example.xlsx
+++ b/service/TestService/config/xlsx/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223BA21-ADC0-415F-83BE-5BA820C0B887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81D829-826B-459F-A38A-6139DC41FFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5832" yWindow="6456" windowWidth="23040" windowHeight="9240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,9 @@
   <si>
     <t>{"155":155, }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>###</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1345,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB3BE2-8EAB-4BFA-B4A2-DE34CC10B52E}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1526,9 +1529,6 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>

--- a/service/TestService/config/xlsx/example.xlsx
+++ b/service/TestService/config/xlsx/example.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81D829-826B-459F-A38A-6139DC41FFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EC4FD-87E1-4AD0-BA60-67734D6A56AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="6456" windowWidth="23040" windowHeight="9240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
     <sheet name="示例part2|Example" sheetId="2" r:id="rId2"/>
     <sheet name="目标|Goal" sheetId="3" r:id="rId3"/>
-    <sheet name="角色|Role" sheetId="4" r:id="rId4"/>
-    <sheet name="掉落|Drop" sheetId="6" r:id="rId5"/>
-    <sheet name="Buff" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1349,7 +1346,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1588,46 +1585,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247B971-2DBC-4A29-A632-FA586D86D572}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41914CF2-4C6D-454C-A0C8-D0B18EDC54DB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DA1D9-DFB7-429C-A7FD-58E60AF9E570}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>